--- a/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/NgayNghiLe_Export_Template.xlsx
+++ b/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/NgayNghiLe_Export_Template.xlsx
@@ -179,12 +179,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -202,6 +196,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,7 +490,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,11 +499,11 @@
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="13" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="6" customWidth="1"/>
     <col min="10" max="10" width="24" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -520,7 +520,7 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -528,50 +528,50 @@
       </c>
     </row>
     <row r="2" spans="1:88" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
     </row>
     <row r="4" spans="1:88" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -586,428 +586,428 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="13"/>
-      <c r="BB4" s="13"/>
-      <c r="BC4" s="13"/>
-      <c r="BD4" s="13"/>
-      <c r="BE4" s="13"/>
-      <c r="BF4" s="13"/>
-      <c r="BG4" s="13"/>
-      <c r="BH4" s="13"/>
-      <c r="BI4" s="13"/>
-      <c r="BJ4" s="13"/>
-      <c r="BK4" s="13"/>
-      <c r="BL4" s="13"/>
-      <c r="BM4" s="13"/>
-      <c r="BN4" s="13"/>
-      <c r="BO4" s="13"/>
-      <c r="BP4" s="13"/>
-      <c r="BQ4" s="13"/>
-      <c r="BR4" s="13"/>
-      <c r="BS4" s="13"/>
-      <c r="BT4" s="13"/>
-      <c r="BU4" s="13"/>
-      <c r="BV4" s="13"/>
-      <c r="BW4" s="13"/>
-      <c r="BX4" s="13"/>
-      <c r="BY4" s="13"/>
-      <c r="BZ4" s="13"/>
-      <c r="CA4" s="13"/>
-      <c r="CB4" s="13"/>
-      <c r="CC4" s="13"/>
-      <c r="CD4" s="13"/>
-      <c r="CE4" s="13"/>
-      <c r="CF4" s="13"/>
-      <c r="CG4" s="13"/>
-      <c r="CH4" s="13"/>
-      <c r="CI4" s="13"/>
-      <c r="CJ4" s="13"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="11"/>
+      <c r="BF4" s="11"/>
+      <c r="BG4" s="11"/>
+      <c r="BH4" s="11"/>
+      <c r="BI4" s="11"/>
+      <c r="BJ4" s="11"/>
+      <c r="BK4" s="11"/>
+      <c r="BL4" s="11"/>
+      <c r="BM4" s="11"/>
+      <c r="BN4" s="11"/>
+      <c r="BO4" s="11"/>
+      <c r="BP4" s="11"/>
+      <c r="BQ4" s="11"/>
+      <c r="BR4" s="11"/>
+      <c r="BS4" s="11"/>
+      <c r="BT4" s="11"/>
+      <c r="BU4" s="11"/>
+      <c r="BV4" s="11"/>
+      <c r="BW4" s="11"/>
+      <c r="BX4" s="11"/>
+      <c r="BY4" s="11"/>
+      <c r="BZ4" s="11"/>
+      <c r="CA4" s="11"/>
+      <c r="CB4" s="11"/>
+      <c r="CC4" s="11"/>
+      <c r="CD4" s="11"/>
+      <c r="CE4" s="11"/>
+      <c r="CF4" s="11"/>
+      <c r="CG4" s="11"/>
+      <c r="CH4" s="11"/>
+      <c r="CI4" s="11"/>
+      <c r="CJ4" s="11"/>
     </row>
     <row r="5" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
     </row>
     <row r="6" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
     </row>
     <row r="7" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
     </row>
     <row r="8" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
     </row>
     <row r="9" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
     </row>
     <row r="10" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
     </row>
     <row r="11" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
     </row>
     <row r="12" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
     </row>
     <row r="13" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="10"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
     </row>
     <row r="14" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
